--- a/biology/Zoologie/Goéland_cendré/Goéland_cendré.xlsx
+++ b/biology/Zoologie/Goéland_cendré/Goéland_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_cendr%C3%A9</t>
+          <t>Goéland_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larus canus
 Le Goéland cendré (Larus canus) est une espèce d'oiseaux de mer de la famille des Laridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_cendr%C3%A9</t>
+          <t>Goéland_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland cendré est un goéland de petite taille (39 à 42 cm de longueur pour une envergure de 108 à 119 cm et une masse de 335 à 450 g), puisqu'à peine plus grand que les membres du genre désignés par le nom vernaculaire de mouettes.
 Il se distingue de beaucoup d'autres espèces de goélands (le Goéland argenté ou le Goéland leucophée, entre autres) par l'absence de tache rouge sur le bec. Celui-ci, entièrement jaune verdâtre, présente en outre une étroite barre sombre en hiver.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_cendr%C3%A9</t>
+          <t>Goéland_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland cendré consomme des proies variées : nombreuses espèces de lamellibranches (coques, moule commune, Ensis directus, Spisula solida, etc.), lombrics, etc. Capable de comportements élaborés, pour provoquer l'émersion des lombrics, il frappe le sol de ses pattes palmées alternativement en restant sur place ; parfois, il tourne sur lui-même pour ne laisser échapper aucune proie.
 Il peut aussi kleptoparasiter d'autres oiseaux, en particulier des limicoles : Huîtrier pie, Vanneau huppé, Barge à queue noire et Bécasseau sanderling ; mais aussi des grèbes.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_cendr%C3%A9</t>
+          <t>Goéland_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'actuel record de recapture d'un goéland cendré bagué est de 25 ans (oiseau bagué en Irlande puis recapturé 25 ans après[1]). Le record précédent était de 22 ans[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'actuel record de recapture d'un goéland cendré bagué est de 25 ans (oiseau bagué en Irlande puis recapturé 25 ans après). Le record précédent était de 22 ans.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_cendr%C3%A9</t>
+          <t>Goéland_cendré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon le Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes :
 L. c. canus	Linnaeus, 1758 : de l'Islande et les îles Britanniques à la mer Blanche ;
